--- a/PCAstatic/PCAstatic_predicted_factors_matrix_5.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-3.964771792513359</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.608691966717037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.267150997575489</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-2.943816913660867</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.641069329820021</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2.360274450936186</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.102008344927528</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.866239626196184</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.652478660482276</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.459899101737919</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.28743645917901</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.133867512653111</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.997873724874928</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.8780912849311063</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.7731500114506065</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.6817030128951496</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.6024487251021245</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.5341467090483407</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.4756283863956884</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.4258037113665583</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.3836646212600527</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.3482859718029078</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3188245453883587</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2945166182251537</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2746744847926095</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2586822631876244</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2459912414705173</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2361149715885565</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2286242726088412</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2231422676696168</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2193395482191945</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2169295338244648</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2156640752734312</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2153293321446573</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2157419428397212</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2167454947241445</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2182072940245333</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2200154290777018</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2220761160736322</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2243113132816488</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2267132264212413</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2291656466206617</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.231629700011677</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-1.063194998471418</v>
       </c>
+      <c r="F3" t="n">
+        <v>-0.9966827188463198</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.9266794693731391</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.8557295677737241</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.7856498377386774</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.7177476083779518</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.6529505495540988</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.5918933973292276</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.5349815458223574</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.4824401528346263</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.434353218002387</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.39069527124793</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.3513573591268601</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.3161684644109447</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.2849131594883285</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.2573460888873953</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.2332037492652579</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.212213954633132</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.1941033204607403</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.1786030605244635</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.165453358013455</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.1544065438262082</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.1452292884812677</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.1377039890283498</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.1316295087221161</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.1268214051681653</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.1231117623645247</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.1203487236882508</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.1183958064837741</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.1171310644864455</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.1164461517860992</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.1162453312788734</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.1164444614199131</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.1169699874093067</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1177579565499693</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1187530722458119</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1199077968076422</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1211815097622917</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1225397255912736</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.123953372646908</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1255343109254424</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1271086408092797</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1286667131497313</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.06368938759002689</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1043125005839153</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1314916478178678</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1476208217120668</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1547043944345275</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1544312249705556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1482279448413562</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1373008302451396</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1226696764834169</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1051954744867602</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.08560322681598581</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.06450098040751587</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.042395922190353</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01970817560127179</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.003217236666239999</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.02609993112669735</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.04871496650942817</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.07088474027589135</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.09247185049299789</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.1133728218007347</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.1335126105894726</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.152839814428804</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.1713225170845886</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.188944704948519</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.2057031944749826</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.221605013855958</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.2366651859212621</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.2509048631891306</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.2643497700674982</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.2770289113319546</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.2889735100853523</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.3002161423498169</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.3107900391862468</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.320728530731369</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.3300646097595145</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.3388305953025617</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.3470578794967658</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.3547767431781609</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.3620162278337192</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.3688040533521545</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.3756008262761888</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.381992749594691</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.3880006481099399</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.003290495230910588</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.1543322119379037</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2652908816130941</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3439379928764829</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3967596740459031</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4291424512900386</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4455412950499426</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4496253383108</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4444022954177482</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4323240879653292</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4153763649856826</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3951543795260533</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3729273482814157</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.3496930825444897</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.3262243767298726</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3031083864691685</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.2807800208161624</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2595502064511653</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.2396297484823756</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2211494053558438</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.2041767083954707</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.188729984739646</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1747899822381138</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1623094435263888</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.1512209320815428</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.1414431742276219</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.1328861468485396</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.125455110301487</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.1190537592050364</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.1135866400184265</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.108960963319929</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.1050879201658441</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.1018835956303604</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.09926955837336919</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.09717319265724098</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.09552782844712512</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.09427271590769618</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.09335288259036423</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.09271890473897981</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.09232661829174475</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.09233026562173777</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.09247614775770913</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0927373061900624</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -533,6 +1163,132 @@
       </c>
       <c r="E6" t="n">
         <v>-0.1294101416292723</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1255721750868942</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.119968299385068</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.1132645349506518</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.1059092905708258</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.09823506614105629</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.09049369402985878</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.08287444396552791</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.07551647792848842</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.06851865198207578</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.06194756452763502</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.05584422118505551</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.05022954584964544</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.04510891960727049</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.0404759020966118</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.03631526772496677</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.03260546926823497</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.02932062379867456</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.02643210073142074</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.02390977898581018</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.02172302957298041</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.01984147103071405</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.01823553771457963</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.01687689474254649</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.01573872814875426</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.01479593434969733</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.01402522922255848</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.01340519383342779</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.01291627104980284</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.01254072486199666</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.0122625721695142</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.01206749501756139</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.01194273975862514</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.01187700833220062</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.01186034577365542</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.01188402715539314</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.01194044640704944</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.01202300883586171</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.01212602865533468</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.01224463241353006</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.01240713269843865</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.01256407651301412</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.01272183087183055</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_5.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_5.xlsx
@@ -443,42 +443,42 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5.390651042491323</v>
+        <v>-1.542905112095295</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.061858419956746</v>
+        <v>-1.376327953361882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.233743651028871</v>
+        <v>-0.5187822358978966</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.207510618636294</v>
+        <v>-0.6108791901859103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3062481831768569</v>
+        <v>-0.9715511871506971</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1695053616500625</v>
+        <v>-0.7840638318940102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.221787513692672</v>
+        <v>-0.7138522768094833</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.796723028256265</v>
+        <v>-0.6251017597037033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1100407980656386</v>
+        <v>0.8231336624746795</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1242486517753355</v>
+        <v>0.6006606937923294</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_5.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-1.542905112095295</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.376327953361882</v>
+        <v>-107.6723250834219</v>
+      </c>
+      <c r="C2" t="n">
+        <v>117.5942845603324</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2078216.403033835</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-722530669.6681616</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-218835220559.0445</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-63487359319802.37</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1.7888376881237e+16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-4.910387891247182e+18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.314956972823998e+21</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-3.435029366888184e+23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-8.769151142633699e+25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-2.199861395007915e+28</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-5.464472141685351e+30</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.349188375047402e+33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-3.315948831958216e+35</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-8.12761329178604e+37</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.990483672455331e+40</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-4.875869488341349e+42</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.5187822358978966</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6108791901859103</v>
+        <v>-96.26250275744302</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-21774.18077738656</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3939452.718682132</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-743370511.1757892</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-145173280549.7003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-28532797857823.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-5381414459277003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.005384841232984e+18</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.846293576704401e+20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.296553628287555e+22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.623688490542846e+24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.891934667463711e+26</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.232374983626391e+29</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.331724709637454e+31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7.180190329923423e+32</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-9.786830923925587e+34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-3.417179406319799e+37</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-6.065716220636713e+39</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.9715511871506971</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7840638318940102</v>
+        <v>-47.91540311645265</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5333.121447522998</v>
+      </c>
+      <c r="D4" t="n">
+        <v>899618.7245339525</v>
+      </c>
+      <c r="E4" t="n">
+        <v>142790863.9063835</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19892354175.39549</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2193980242931.121</v>
+      </c>
+      <c r="H4" t="n">
+        <v>356656788858720.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.159645247031888e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.170956605483629e+19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.357134820742203e+21</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.628582281339793e+23</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.10522661824741e+25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.162721903641395e+28</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.360689617654482e+30</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.088608903231858e+32</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.801299579479052e+34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7.316263348866375e+36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.455426636667734e+39</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.7138522768094833</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6251017597037033</v>
+        <v>79.20981309627001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9275.66480615844</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1396088.291332924</v>
+      </c>
+      <c r="E5" t="n">
+        <v>276334716.5663702</v>
+      </c>
+      <c r="F5" t="n">
+        <v>56783985270.84228</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11385693824000.71</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2101600583587585</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.650676638760862e+17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.770318972107194e+19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-7.862388380938082e+21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-8.607003515235669e+23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-7.427121555094514e+25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-7.955168817271931e+27</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1.377268362418268e+30</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-2.386224608982165e+32</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-4.22328746981304e+34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-7.703688064493114e+36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-1.42965178751053e+39</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>0.8231336624746795</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6006606937923294</v>
+        <v>36.79575802539394</v>
+      </c>
+      <c r="C6" t="n">
+        <v>341.7735292848716</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-566942.3603989104</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-64507535.7913077</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-6368476291.501096</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-476457990844.7783</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33050504344210.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.380952373738552e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.990339438062695e+18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.404301331440669e+20</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.970316171607975e+22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.45682402395027e+24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.173607128946785e+26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.13039575239473e+28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.213334344196775e+30</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8.009580346051177e+32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.20502165607286e+35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.029777869283875e+37</v>
       </c>
     </row>
   </sheetData>
